--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="product_list" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="master" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Search Index</t>
   </si>
@@ -97,6 +98,18 @@
   </si>
   <si>
     <t>televisions</t>
+  </si>
+  <si>
+    <t>micro sd cards</t>
+  </si>
+  <si>
+    <t>VideoGames</t>
+  </si>
+  <si>
+    <t>video game</t>
+  </si>
+  <si>
+    <t>digital camera</t>
   </si>
 </sst>
 </file>
@@ -414,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,6 +457,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -452,10 +473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,6 +491,77 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Search Index</t>
   </si>
@@ -100,16 +100,58 @@
     <t>televisions</t>
   </si>
   <si>
-    <t>micro sd cards</t>
+    <t>Browse Node</t>
+  </si>
+  <si>
+    <t>headphones</t>
+  </si>
+  <si>
+    <t>Electronics/Computers &amp; Accessories/Cables &amp; Accessories/Memory Cards/Micro SD Cards</t>
+  </si>
+  <si>
+    <t>Electronics/Accessories &amp; Supplies/Audio &amp; Video Accessories/Headphones</t>
+  </si>
+  <si>
+    <t>Electronics/Camera &amp; Photo/Digital Cameras/Point &amp; Shoot Digital Cameras</t>
+  </si>
+  <si>
+    <t>Books/Literature &amp; Fiction/Action &amp; Adventure/Mystery, Thriller &amp; Suspense/Crime</t>
+  </si>
+  <si>
+    <t>Home &amp; Kitchen/Kitchen &amp; Dining/Small Appliances/Ovens &amp; Toasters/Toasters</t>
+  </si>
+  <si>
+    <t>Electronics/Television &amp; Video/Televisions/LED &amp; LCD TVs</t>
+  </si>
+  <si>
+    <t>Number of results</t>
+  </si>
+  <si>
+    <t>cameras</t>
+  </si>
+  <si>
+    <t>sdcards</t>
+  </si>
+  <si>
+    <t>Books/Romance/Science Fiction</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>romance</t>
+  </si>
+  <si>
+    <t>Video Games</t>
+  </si>
+  <si>
+    <t>videogames</t>
+  </si>
+  <si>
+    <t>Video Games/PlayStation 4/Games</t>
   </si>
   <si>
     <t>VideoGames</t>
-  </si>
-  <si>
-    <t>video game</t>
-  </si>
-  <si>
-    <t>digital camera</t>
   </si>
 </sst>
 </file>
@@ -145,8 +187,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,42 +470,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10159269011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7654408011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6427831011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="C5" s="1">
+        <v>6459737011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1">
+        <v>330405011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>289938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3015433011</v>
       </c>
     </row>
   </sheetData>
@@ -473,72 +580,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10159269011</v>
+      </c>
+      <c r="D2" s="1">
+        <v>19526</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7654408011</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2030</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="1">
+        <v>172541</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6459737011</v>
+      </c>
+      <c r="D5" s="1">
+        <v>317</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1">
+        <v>330405011</v>
+      </c>
+      <c r="D6" s="1">
+        <v>417</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>289938</v>
+      </c>
+      <c r="D7" s="1">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3015433011</v>
+      </c>
+      <c r="D8" s="1">
+        <v>327</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6427831011</v>
+      </c>
+      <c r="D9" s="1">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="product_list" sheetId="1" r:id="rId1"/>
-    <sheet name="master" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="master" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="613">
   <si>
     <t>Search Index</t>
   </si>
@@ -152,19 +153,1742 @@
   </si>
   <si>
     <t>VideoGames</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1250060834</t>
+  </si>
+  <si>
+    <t>1616991283</t>
+  </si>
+  <si>
+    <t>1611763517</t>
+  </si>
+  <si>
+    <t>034554305X</t>
+  </si>
+  <si>
+    <t>0982853742</t>
+  </si>
+  <si>
+    <t>1451621019</t>
+  </si>
+  <si>
+    <t>0451466888</t>
+  </si>
+  <si>
+    <t>1439166668</t>
+  </si>
+  <si>
+    <t>0142181277</t>
+  </si>
+  <si>
+    <t>0142181307</t>
+  </si>
+  <si>
+    <t>045146687X</t>
+  </si>
+  <si>
+    <t>0316399833</t>
+  </si>
+  <si>
+    <t>0691161909</t>
+  </si>
+  <si>
+    <t>0062279386</t>
+  </si>
+  <si>
+    <t>1476747202</t>
+  </si>
+  <si>
+    <t>0525953981</t>
+  </si>
+  <si>
+    <t>0345479351</t>
+  </si>
+  <si>
+    <t>0142181285</t>
+  </si>
+  <si>
+    <t>0142181293</t>
+  </si>
+  <si>
+    <t>1455578533</t>
+  </si>
+  <si>
+    <t>0399160671</t>
+  </si>
+  <si>
+    <t>0425197395</t>
+  </si>
+  <si>
+    <t>038531387X</t>
+  </si>
+  <si>
+    <t>0743486226</t>
+  </si>
+  <si>
+    <t>1451640226</t>
+  </si>
+  <si>
+    <t>0553394924</t>
+  </si>
+  <si>
+    <t>0425264696</t>
+  </si>
+  <si>
+    <t>0525953973</t>
+  </si>
+  <si>
+    <t>0316198641</t>
+  </si>
+  <si>
+    <t>0983716307</t>
+  </si>
+  <si>
+    <t>1941539009</t>
+  </si>
+  <si>
+    <t>0446674370</t>
+  </si>
+  <si>
+    <t>0743490304</t>
+  </si>
+  <si>
+    <t>1250013046</t>
+  </si>
+  <si>
+    <t>0515154652</t>
+  </si>
+  <si>
+    <t>0399161791</t>
+  </si>
+  <si>
+    <t>0142181498</t>
+  </si>
+  <si>
+    <t>0316188441</t>
+  </si>
+  <si>
+    <t>0786024941</t>
+  </si>
+  <si>
+    <t>1451648960</t>
+  </si>
+  <si>
+    <t>1439138664</t>
+  </si>
+  <si>
+    <t>1250047978</t>
+  </si>
+  <si>
+    <t>0988672561</t>
+  </si>
+  <si>
+    <t>1921758813</t>
+  </si>
+  <si>
+    <t>1250007305</t>
+  </si>
+  <si>
+    <t>0984042393</t>
+  </si>
+  <si>
+    <t>1617203408</t>
+  </si>
+  <si>
+    <t>006211946X</t>
+  </si>
+  <si>
+    <t>048642216X</t>
+  </si>
+  <si>
+    <t>1941539017</t>
+  </si>
+  <si>
+    <t>042524749X</t>
+  </si>
+  <si>
+    <t>0743428188</t>
+  </si>
+  <si>
+    <t>0425266303</t>
+  </si>
+  <si>
+    <t>1611761522</t>
+  </si>
+  <si>
+    <t>1611761689</t>
+  </si>
+  <si>
+    <t>1416514988</t>
+  </si>
+  <si>
+    <t>0062073125</t>
+  </si>
+  <si>
+    <t>1592120075</t>
+  </si>
+  <si>
+    <t>1938409221</t>
+  </si>
+  <si>
+    <t>0425261298</t>
+  </si>
+  <si>
+    <t>0449003604</t>
+  </si>
+  <si>
+    <t>0515151378</t>
+  </si>
+  <si>
+    <t>1616260408</t>
+  </si>
+  <si>
+    <t>0802138632</t>
+  </si>
+  <si>
+    <t>0985196947</t>
+  </si>
+  <si>
+    <t>1477848207</t>
+  </si>
+  <si>
+    <t>1617204625</t>
+  </si>
+  <si>
+    <t>0446610232</t>
+  </si>
+  <si>
+    <t>1250007755</t>
+  </si>
+  <si>
+    <t>0974061018</t>
+  </si>
+  <si>
+    <t>1611748755</t>
+  </si>
+  <si>
+    <t>1451648944</t>
+  </si>
+  <si>
+    <t>0983716323</t>
+  </si>
+  <si>
+    <t>1425751563</t>
+  </si>
+  <si>
+    <t>0765364549</t>
+  </si>
+  <si>
+    <t>1611762006</t>
+  </si>
+  <si>
+    <t>0316187216</t>
+  </si>
+  <si>
+    <t>1440129002</t>
+  </si>
+  <si>
+    <t>1781162662</t>
+  </si>
+  <si>
+    <t>0345502663</t>
+  </si>
+  <si>
+    <t>0316198366</t>
+  </si>
+  <si>
+    <t>0385421982</t>
+  </si>
+  <si>
+    <t>1743340591</t>
+  </si>
+  <si>
+    <t>051514570X</t>
+  </si>
+  <si>
+    <t>0985442271</t>
+  </si>
+  <si>
+    <t>1451627238</t>
+  </si>
+  <si>
+    <t>0988672545</t>
+  </si>
+  <si>
+    <t>1941251188</t>
+  </si>
+  <si>
+    <t>0679768084</t>
+  </si>
+  <si>
+    <t>1439170290</t>
+  </si>
+  <si>
+    <t>0767931173</t>
+  </si>
+  <si>
+    <t>1503368483</t>
+  </si>
+  <si>
+    <t>0316218502</t>
+  </si>
+  <si>
+    <t>1250042968</t>
+  </si>
+  <si>
+    <t>0991406702</t>
+  </si>
+  <si>
+    <t>1501022083</t>
+  </si>
+  <si>
+    <t>045146799X</t>
+  </si>
+  <si>
+    <t>1476759529</t>
+  </si>
+  <si>
+    <t>0316221112</t>
+  </si>
+  <si>
+    <t>0373779232</t>
+  </si>
+  <si>
+    <t>0316221082</t>
+  </si>
+  <si>
+    <t>0316221120</t>
+  </si>
+  <si>
+    <t>1478349425</t>
+  </si>
+  <si>
+    <t>1613900848</t>
+  </si>
+  <si>
+    <t>0142181145</t>
+  </si>
+  <si>
+    <t>192660685X</t>
+  </si>
+  <si>
+    <t>0982903391</t>
+  </si>
+  <si>
+    <t>031600345X</t>
+  </si>
+  <si>
+    <t>0373803583</t>
+  </si>
+  <si>
+    <t>0316003441</t>
+  </si>
+  <si>
+    <t>1482387530</t>
+  </si>
+  <si>
+    <t>0525954244</t>
+  </si>
+  <si>
+    <t>0316003476</t>
+  </si>
+  <si>
+    <t>0316003484</t>
+  </si>
+  <si>
+    <t>0756406005</t>
+  </si>
+  <si>
+    <t>0316007587</t>
+  </si>
+  <si>
+    <t>1619291908</t>
+  </si>
+  <si>
+    <t>0857662651</t>
+  </si>
+  <si>
+    <t>0316021733</t>
+  </si>
+  <si>
+    <t>1502710994</t>
+  </si>
+  <si>
+    <t>1476722358</t>
+  </si>
+  <si>
+    <t>1632164191</t>
+  </si>
+  <si>
+    <t>0857663321</t>
+  </si>
+  <si>
+    <t>0345384911</t>
+  </si>
+  <si>
+    <t>0857662627</t>
+  </si>
+  <si>
+    <t>1477849815</t>
+  </si>
+  <si>
+    <t>1626392242</t>
+  </si>
+  <si>
+    <t>0425263932</t>
+  </si>
+  <si>
+    <t>031602175X</t>
+  </si>
+  <si>
+    <t>163216177X</t>
+  </si>
+  <si>
+    <t>1427239347</t>
+  </si>
+  <si>
+    <t>1401311024</t>
+  </si>
+  <si>
+    <t>1419970682</t>
+  </si>
+  <si>
+    <t>1503016498</t>
+  </si>
+  <si>
+    <t>1608208745</t>
+  </si>
+  <si>
+    <t>1931520283</t>
+  </si>
+  <si>
+    <t>0981514804</t>
+  </si>
+  <si>
+    <t>1619291185</t>
+  </si>
+  <si>
+    <t>0692271813</t>
+  </si>
+  <si>
+    <t>1478262680</t>
+  </si>
+  <si>
+    <t>1499329938</t>
+  </si>
+  <si>
+    <t>0857663119</t>
+  </si>
+  <si>
+    <t>1624671772</t>
+  </si>
+  <si>
+    <t>9948205782</t>
+  </si>
+  <si>
+    <t>1250058112</t>
+  </si>
+  <si>
+    <t>1495980936</t>
+  </si>
+  <si>
+    <t>8190605607</t>
+  </si>
+  <si>
+    <t>0451238826</t>
+  </si>
+  <si>
+    <t>150521310X</t>
+  </si>
+  <si>
+    <t>0143124374</t>
+  </si>
+  <si>
+    <t>0373803494</t>
+  </si>
+  <si>
+    <t>1250058104</t>
+  </si>
+  <si>
+    <t>147825999X</t>
+  </si>
+  <si>
+    <t>1494931370</t>
+  </si>
+  <si>
+    <t>1609981774</t>
+  </si>
+  <si>
+    <t>1626941408</t>
+  </si>
+  <si>
+    <t>163142033X</t>
+  </si>
+  <si>
+    <t>1490434410</t>
+  </si>
+  <si>
+    <t>0765374188</t>
+  </si>
+  <si>
+    <t>0957656327</t>
+  </si>
+  <si>
+    <t>1597804215</t>
+  </si>
+  <si>
+    <t>1492915939</t>
+  </si>
+  <si>
+    <t>1495305910</t>
+  </si>
+  <si>
+    <t>1482300370</t>
+  </si>
+  <si>
+    <t>0989867110</t>
+  </si>
+  <si>
+    <t>1501098527</t>
+  </si>
+  <si>
+    <t>1499329911</t>
+  </si>
+  <si>
+    <t>1632583240</t>
+  </si>
+  <si>
+    <t>1618683969</t>
+  </si>
+  <si>
+    <t>1941229557</t>
+  </si>
+  <si>
+    <t>1505313775</t>
+  </si>
+  <si>
+    <t>0615982794</t>
+  </si>
+  <si>
+    <t>0756407168</t>
+  </si>
+  <si>
+    <t>0615719740</t>
+  </si>
+  <si>
+    <t>1623006732</t>
+  </si>
+  <si>
+    <t>0473291762</t>
+  </si>
+  <si>
+    <t>1941229603</t>
+  </si>
+  <si>
+    <t>1611945429</t>
+  </si>
+  <si>
+    <t>1481273043</t>
+  </si>
+  <si>
+    <t>1625010435</t>
+  </si>
+  <si>
+    <t>0756406323</t>
+  </si>
+  <si>
+    <t>B00K1JBLO4</t>
+  </si>
+  <si>
+    <t>B00KAED850</t>
+  </si>
+  <si>
+    <t>B00BGA9Y3W</t>
+  </si>
+  <si>
+    <t>B00JK00S0S</t>
+  </si>
+  <si>
+    <t>B00GMFKYK8</t>
+  </si>
+  <si>
+    <t>B00HGLLRV2</t>
+  </si>
+  <si>
+    <t>B00J48MUS4</t>
+  </si>
+  <si>
+    <t>B00KVSQ848</t>
+  </si>
+  <si>
+    <t>B00GLZQR96</t>
+  </si>
+  <si>
+    <t>B00BMFIXOW</t>
+  </si>
+  <si>
+    <t>B00JUFT1F6</t>
+  </si>
+  <si>
+    <t>B00DHF3BZQ</t>
+  </si>
+  <si>
+    <t>B00KVQYJR8</t>
+  </si>
+  <si>
+    <t>B00HD4R5YU</t>
+  </si>
+  <si>
+    <t>B00DUARBTA</t>
+  </si>
+  <si>
+    <t>B00NLZAB6E</t>
+  </si>
+  <si>
+    <t>B00BI83EVU</t>
+  </si>
+  <si>
+    <t>B00DS0MQUQ</t>
+  </si>
+  <si>
+    <t>B00NP8J2LC</t>
+  </si>
+  <si>
+    <t>B00KBZHSV8</t>
+  </si>
+  <si>
+    <t>B00K586O7K</t>
+  </si>
+  <si>
+    <t>B00KJ8UPD0</t>
+  </si>
+  <si>
+    <t>B00DHF39KS</t>
+  </si>
+  <si>
+    <t>B00ECOAX9I</t>
+  </si>
+  <si>
+    <t>B00BGA9ZZ4</t>
+  </si>
+  <si>
+    <t>B00CXCCH1I</t>
+  </si>
+  <si>
+    <t>B00H5V9S6E</t>
+  </si>
+  <si>
+    <t>B00FRESY4I</t>
+  </si>
+  <si>
+    <t>B00MXENX8W</t>
+  </si>
+  <si>
+    <t>B00C27SCC2</t>
+  </si>
+  <si>
+    <t>B00IMVRVC4</t>
+  </si>
+  <si>
+    <t>B00KHDJBS2</t>
+  </si>
+  <si>
+    <t>B00KY1I0EI</t>
+  </si>
+  <si>
+    <t>B00BGAA29M</t>
+  </si>
+  <si>
+    <t>B00KPY1GH2</t>
+  </si>
+  <si>
+    <t>B00KF7BEFS</t>
+  </si>
+  <si>
+    <t>B00K2O54V4</t>
+  </si>
+  <si>
+    <t>B00KM66UJ2</t>
+  </si>
+  <si>
+    <t>B00NLZA7GS</t>
+  </si>
+  <si>
+    <t>B00IGI3G3G</t>
+  </si>
+  <si>
+    <t>B00G6MW540</t>
+  </si>
+  <si>
+    <t>B00MEXP5BK</t>
+  </si>
+  <si>
+    <t>B00HYPWE8A</t>
+  </si>
+  <si>
+    <t>B00DCBDNW6</t>
+  </si>
+  <si>
+    <t>B00K2O5360</t>
+  </si>
+  <si>
+    <t>B00MEXP4UC</t>
+  </si>
+  <si>
+    <t>B00DBRM3G8</t>
+  </si>
+  <si>
+    <t>B00OQRU7HO</t>
+  </si>
+  <si>
+    <t>B00GZ1H07Y</t>
+  </si>
+  <si>
+    <t>B00LEPDQAQ</t>
+  </si>
+  <si>
+    <t>B00KS7UF96</t>
+  </si>
+  <si>
+    <t>B00LEPDQCE</t>
+  </si>
+  <si>
+    <t>B00CYS5GEQ</t>
+  </si>
+  <si>
+    <t>B00KX75UQ4</t>
+  </si>
+  <si>
+    <t>B00MA5TY50</t>
+  </si>
+  <si>
+    <t>B00KM66W54</t>
+  </si>
+  <si>
+    <t>B00K5UZMJO</t>
+  </si>
+  <si>
+    <t>B00J226358</t>
+  </si>
+  <si>
+    <t>B00O1GTTWY</t>
+  </si>
+  <si>
+    <t>B00HZI0Y0Q</t>
+  </si>
+  <si>
+    <t>B00KSBB7EY</t>
+  </si>
+  <si>
+    <t>B00H8JNHOW</t>
+  </si>
+  <si>
+    <t>B00IZBQ460</t>
+  </si>
+  <si>
+    <t>B00H8JNI2S</t>
+  </si>
+  <si>
+    <t>B00GKKI650</t>
+  </si>
+  <si>
+    <t>B0071O4ETQ</t>
+  </si>
+  <si>
+    <t>B004HG056M</t>
+  </si>
+  <si>
+    <t>B00BP5N498</t>
+  </si>
+  <si>
+    <t>B00IN2WDIY</t>
+  </si>
+  <si>
+    <t>B00JJNA12Q</t>
+  </si>
+  <si>
+    <t>B00LX23772</t>
+  </si>
+  <si>
+    <t>B00IGXEAQI</t>
+  </si>
+  <si>
+    <t>B00LX237M2</t>
+  </si>
+  <si>
+    <t>B00IDXB1WW</t>
+  </si>
+  <si>
+    <t>B00K7NCS9G</t>
+  </si>
+  <si>
+    <t>B00IXPP7W0</t>
+  </si>
+  <si>
+    <t>B00LV9Q620</t>
+  </si>
+  <si>
+    <t>B00GKKI4Q6</t>
+  </si>
+  <si>
+    <t>B00HCRDZYW</t>
+  </si>
+  <si>
+    <t>B00JJNA10I</t>
+  </si>
+  <si>
+    <t>B00MA7D2SS</t>
+  </si>
+  <si>
+    <t>B00IDXB1W2</t>
+  </si>
+  <si>
+    <t>B00K7NCS8M</t>
+  </si>
+  <si>
+    <t>B00KVLT0HM</t>
+  </si>
+  <si>
+    <t>B00K4UIODQ</t>
+  </si>
+  <si>
+    <t>B00IGXEBEY</t>
+  </si>
+  <si>
+    <t>B00GKKI4IE</t>
+  </si>
+  <si>
+    <t>B00GKKI4NY</t>
+  </si>
+  <si>
+    <t>B00JP7OW58</t>
+  </si>
+  <si>
+    <t>B00II6VT0S</t>
+  </si>
+  <si>
+    <t>B00IJ1YTZO</t>
+  </si>
+  <si>
+    <t>B00K7NCS96</t>
+  </si>
+  <si>
+    <t>B00II6VT12</t>
+  </si>
+  <si>
+    <t>B00GKKI4JI</t>
+  </si>
+  <si>
+    <t>B00II6VVV0</t>
+  </si>
+  <si>
+    <t>B00KVLT08G</t>
+  </si>
+  <si>
+    <t>B00KSBB84S</t>
+  </si>
+  <si>
+    <t>B00IQ581GG</t>
+  </si>
+  <si>
+    <t>B00I94IRIQ</t>
+  </si>
+  <si>
+    <t>B00K4UJ318</t>
+  </si>
+  <si>
+    <t>B00I94IRE0</t>
+  </si>
+  <si>
+    <t>B00HPMCN7Y</t>
+  </si>
+  <si>
+    <t>B00GTE0VJ6</t>
+  </si>
+  <si>
+    <t>B00K4UJ2S2</t>
+  </si>
+  <si>
+    <t>B00HPMCN6K</t>
+  </si>
+  <si>
+    <t>B00II6VW3M</t>
+  </si>
+  <si>
+    <t>B00IDXIL7K</t>
+  </si>
+  <si>
+    <t>B00II6VW9Q</t>
+  </si>
+  <si>
+    <t>B00MK39H68</t>
+  </si>
+  <si>
+    <t>B00HPMCN8S</t>
+  </si>
+  <si>
+    <t>B00II6VYI0</t>
+  </si>
+  <si>
+    <t>B00K4UJ462</t>
+  </si>
+  <si>
+    <t>B00KSBB7US</t>
+  </si>
+  <si>
+    <t>B00JL6532Y</t>
+  </si>
+  <si>
+    <t>B00II6VWAK</t>
+  </si>
+  <si>
+    <t>B00KGOH8DW</t>
+  </si>
+  <si>
+    <t>B00II6VY6C</t>
+  </si>
+  <si>
+    <t>B00ID2HGK4</t>
+  </si>
+  <si>
+    <t>B00KJEZIEU</t>
+  </si>
+  <si>
+    <t>B00ID2HICA</t>
+  </si>
+  <si>
+    <t>B00ID2HI8O</t>
+  </si>
+  <si>
+    <t>B00IDXILHA</t>
+  </si>
+  <si>
+    <t>B00J58F0IA</t>
+  </si>
+  <si>
+    <t>B00HZZZM56</t>
+  </si>
+  <si>
+    <t>B00M2FBEG0</t>
+  </si>
+  <si>
+    <t>B00ID2HIJS</t>
+  </si>
+  <si>
+    <t>B00II6VYNK</t>
+  </si>
+  <si>
+    <t>B00BCGRRZ2</t>
+  </si>
+  <si>
+    <t>B00HZZZM1K</t>
+  </si>
+  <si>
+    <t>B00KJEZI86</t>
+  </si>
+  <si>
+    <t>B00N463LSA</t>
+  </si>
+  <si>
+    <t>B00ID2HI7U</t>
+  </si>
+  <si>
+    <t>B00IDXIM88</t>
+  </si>
+  <si>
+    <t>B00IN2WIXY</t>
+  </si>
+  <si>
+    <t>B00ID2HJJM</t>
+  </si>
+  <si>
+    <t>B00KH7NBI4</t>
+  </si>
+  <si>
+    <t>B00J58BEIK</t>
+  </si>
+  <si>
+    <t>B00KJEZIPY</t>
+  </si>
+  <si>
+    <t>B00HVX5OO6</t>
+  </si>
+  <si>
+    <t>B00KVLT0A4</t>
+  </si>
+  <si>
+    <t>B00I94IR8G</t>
+  </si>
+  <si>
+    <t>B00KVLEM7K</t>
+  </si>
+  <si>
+    <t>B00I94ISS0</t>
+  </si>
+  <si>
+    <t>B00I94IPTW</t>
+  </si>
+  <si>
+    <t>B00ID2HGQ8</t>
+  </si>
+  <si>
+    <t>B00KVLQUHK</t>
+  </si>
+  <si>
+    <t>B00I94IPXS</t>
+  </si>
+  <si>
+    <t>B00HPMCNXI</t>
+  </si>
+  <si>
+    <t>B00HPMCO46</t>
+  </si>
+  <si>
+    <t>B00723QKVQ</t>
+  </si>
+  <si>
+    <t>B00KVLQUIE</t>
+  </si>
+  <si>
+    <t>B00KVLQURA</t>
+  </si>
+  <si>
+    <t>B00I94IRC2</t>
+  </si>
+  <si>
+    <t>B00HZZZM1U</t>
+  </si>
+  <si>
+    <t>B00BYQYZJ6</t>
+  </si>
+  <si>
+    <t>B00IN2WDHU</t>
+  </si>
+  <si>
+    <t>B00NM4589O</t>
+  </si>
+  <si>
+    <t>B00HQ4W3OE</t>
+  </si>
+  <si>
+    <t>B009B0MYSQ</t>
+  </si>
+  <si>
+    <t>B00I58LVKC</t>
+  </si>
+  <si>
+    <t>B00HLDFNKQ</t>
+  </si>
+  <si>
+    <t>B00I8BIC9E</t>
+  </si>
+  <si>
+    <t>B00I8BICB2</t>
+  </si>
+  <si>
+    <t>B00M0QVTOS</t>
+  </si>
+  <si>
+    <t>B00K7O2DJU</t>
+  </si>
+  <si>
+    <t>B00I58M26Y</t>
+  </si>
+  <si>
+    <t>B00I58M192</t>
+  </si>
+  <si>
+    <t>B00HNJWUC2</t>
+  </si>
+  <si>
+    <t>B00ATE7UUK</t>
+  </si>
+  <si>
+    <t>B00IA9LQK6</t>
+  </si>
+  <si>
+    <t>B00HZE2PYI</t>
+  </si>
+  <si>
+    <t>B00HQ4W5HO</t>
+  </si>
+  <si>
+    <t>B00EFILHB4</t>
+  </si>
+  <si>
+    <t>B00HV6KGV4</t>
+  </si>
+  <si>
+    <t>B00HLDFQU8</t>
+  </si>
+  <si>
+    <t>B00889ST2G</t>
+  </si>
+  <si>
+    <t>B009B0MZ1M</t>
+  </si>
+  <si>
+    <t>B00I9OPF2W</t>
+  </si>
+  <si>
+    <t>B00CFCTDMC</t>
+  </si>
+  <si>
+    <t>B008MB6ZX0</t>
+  </si>
+  <si>
+    <t>B00HQ4W6MI</t>
+  </si>
+  <si>
+    <t>B00IZDKTMI</t>
+  </si>
+  <si>
+    <t>B00EFILNV8</t>
+  </si>
+  <si>
+    <t>B00M0QVG3W</t>
+  </si>
+  <si>
+    <t>B00IA9LUP2</t>
+  </si>
+  <si>
+    <t>B00BEHQKP2</t>
+  </si>
+  <si>
+    <t>B00HV6KI8U</t>
+  </si>
+  <si>
+    <t>B00ATE7UFU</t>
+  </si>
+  <si>
+    <t>B00NEWYE12</t>
+  </si>
+  <si>
+    <t>B00I8BIB1S</t>
+  </si>
+  <si>
+    <t>B00HGE7MPO</t>
+  </si>
+  <si>
+    <t>B00NF6ZGY6</t>
+  </si>
+  <si>
+    <t>B00NEWZ8EY</t>
+  </si>
+  <si>
+    <t>B00GORMJTI</t>
+  </si>
+  <si>
+    <t>B00DM8R866</t>
+  </si>
+  <si>
+    <t>B008MB719C</t>
+  </si>
+  <si>
+    <t>B00IA9LOZS</t>
+  </si>
+  <si>
+    <t>B00HV6KLP0</t>
+  </si>
+  <si>
+    <t>B00I58LNF0</t>
+  </si>
+  <si>
+    <t>B00M9AB81O</t>
+  </si>
+  <si>
+    <t>B00HGE3CZI</t>
+  </si>
+  <si>
+    <t>B00KOUIBZW</t>
+  </si>
+  <si>
+    <t>B00M9GW22W</t>
+  </si>
+  <si>
+    <t>B00NF6ZHNG</t>
+  </si>
+  <si>
+    <t>B00I58M1VK</t>
+  </si>
+  <si>
+    <t>B00HTTKSZC</t>
+  </si>
+  <si>
+    <t>B00CDIK48U</t>
+  </si>
+  <si>
+    <t>B008VUZXQC</t>
+  </si>
+  <si>
+    <t>B00E87OK84</t>
+  </si>
+  <si>
+    <t>B00FRHTSMW</t>
+  </si>
+  <si>
+    <t>B00AWYN1O6</t>
+  </si>
+  <si>
+    <t>B00DS2JQK2</t>
+  </si>
+  <si>
+    <t>B0099QUSGM</t>
+  </si>
+  <si>
+    <t>B00HGE3CXU</t>
+  </si>
+  <si>
+    <t>B009B0WREM</t>
+  </si>
+  <si>
+    <t>B00MXS2W62</t>
+  </si>
+  <si>
+    <t>B007JRUSE0</t>
+  </si>
+  <si>
+    <t>B009GQ034C</t>
+  </si>
+  <si>
+    <t>B00C811Q0W</t>
+  </si>
+  <si>
+    <t>B0083VCY16</t>
+  </si>
+  <si>
+    <t>B006OQSNYY</t>
+  </si>
+  <si>
+    <t>B008LTIYN2</t>
+  </si>
+  <si>
+    <t>B008YNFB3Q</t>
+  </si>
+  <si>
+    <t>B00DCLLHME</t>
+  </si>
+  <si>
+    <t>B00AZY3TFE</t>
+  </si>
+  <si>
+    <t>B008DJQ1CQ</t>
+  </si>
+  <si>
+    <t>B003A0CQI6</t>
+  </si>
+  <si>
+    <t>B005BWMMCQ</t>
+  </si>
+  <si>
+    <t>B0007Y17WO</t>
+  </si>
+  <si>
+    <t>B0000A1ZN1</t>
+  </si>
+  <si>
+    <t>B0083VCXQM</t>
+  </si>
+  <si>
+    <t>B00GK5WN5O</t>
+  </si>
+  <si>
+    <t>B00499D64U</t>
+  </si>
+  <si>
+    <t>B00BY1D5ZQ</t>
+  </si>
+  <si>
+    <t>B003TT0ZFE</t>
+  </si>
+  <si>
+    <t>B00140SC64</t>
+  </si>
+  <si>
+    <t>B005O6SK3Y</t>
+  </si>
+  <si>
+    <t>B00J4ON38Y</t>
+  </si>
+  <si>
+    <t>B003TSVHU2</t>
+  </si>
+  <si>
+    <t>B000646TSC</t>
+  </si>
+  <si>
+    <t>B008J8MKZI</t>
+  </si>
+  <si>
+    <t>B00CHJDJJQ</t>
+  </si>
+  <si>
+    <t>B0001O2WY2</t>
+  </si>
+  <si>
+    <t>B00D2RQTHG</t>
+  </si>
+  <si>
+    <t>B0015XGNEI</t>
+  </si>
+  <si>
+    <t>B00COMHC12</t>
+  </si>
+  <si>
+    <t>B007P6H24E</t>
+  </si>
+  <si>
+    <t>B000F0BYR8</t>
+  </si>
+  <si>
+    <t>B008YS1VFS</t>
+  </si>
+  <si>
+    <t>B005TK76DU</t>
+  </si>
+  <si>
+    <t>B005PO77DE</t>
+  </si>
+  <si>
+    <t>B003TT2Q1U</t>
+  </si>
+  <si>
+    <t>B0097D2SCE</t>
+  </si>
+  <si>
+    <t>B00DI8RB30</t>
+  </si>
+  <si>
+    <t>B003TSTOXO</t>
+  </si>
+  <si>
+    <t>B00829HUTK</t>
+  </si>
+  <si>
+    <t>B00ESDVRS4</t>
+  </si>
+  <si>
+    <t>B00GBCC00E</t>
+  </si>
+  <si>
+    <t>B00DJ65C2I</t>
+  </si>
+  <si>
+    <t>B00B7MQVKI</t>
+  </si>
+  <si>
+    <t>B000WEBG2K</t>
+  </si>
+  <si>
+    <t>B00COMHBT0</t>
+  </si>
+  <si>
+    <t>B0093FX38Y</t>
+  </si>
+  <si>
+    <t>B000FCTOHS</t>
+  </si>
+  <si>
+    <t>B00LU2HVAO</t>
+  </si>
+  <si>
+    <t>B0013MXXDK</t>
+  </si>
+  <si>
+    <t>B00027909I</t>
+  </si>
+  <si>
+    <t>B008P47FMO</t>
+  </si>
+  <si>
+    <t>B003TT2PRU</t>
+  </si>
+  <si>
+    <t>B000QHEG4I</t>
+  </si>
+  <si>
+    <t>B005O37CQI</t>
+  </si>
+  <si>
+    <t>B0012S8NXA</t>
+  </si>
+  <si>
+    <t>B004UDB6SS</t>
+  </si>
+  <si>
+    <t>B00009NRP4</t>
+  </si>
+  <si>
+    <t>B000BH856S</t>
+  </si>
+  <si>
+    <t>B0026L6L5E</t>
+  </si>
+  <si>
+    <t>B001DHMKV6</t>
+  </si>
+  <si>
+    <t>B00JZMDMAE</t>
+  </si>
+  <si>
+    <t>B003R50LOA</t>
+  </si>
+  <si>
+    <t>B0000CFLN1</t>
+  </si>
+  <si>
+    <t>B00N8XFGI2</t>
+  </si>
+  <si>
+    <t>B00009NROG</t>
+  </si>
+  <si>
+    <t>B000TK40KM</t>
+  </si>
+  <si>
+    <t>B00197K1HA</t>
+  </si>
+  <si>
+    <t>B00EZ0FYD4</t>
+  </si>
+  <si>
+    <t>B003TJUTO6</t>
+  </si>
+  <si>
+    <t>B0031DLJ62</t>
+  </si>
+  <si>
+    <t>B0036FRT0U</t>
+  </si>
+  <si>
+    <t>B004QIJU3U</t>
+  </si>
+  <si>
+    <t>B007R2E5W8</t>
+  </si>
+  <si>
+    <t>B00F5X04HG</t>
+  </si>
+  <si>
+    <t>B00KR6PVLA</t>
+  </si>
+  <si>
+    <t>B00FFRNZTG</t>
+  </si>
+  <si>
+    <t>B00A157JS0</t>
+  </si>
+  <si>
+    <t>B00CJB0Q2U</t>
+  </si>
+  <si>
+    <t>B005EPRJRI</t>
+  </si>
+  <si>
+    <t>B0016CPGYQ</t>
+  </si>
+  <si>
+    <t>B00553C1DQ</t>
+  </si>
+  <si>
+    <t>B0054TLG6Y</t>
+  </si>
+  <si>
+    <t>B0093FX39S</t>
+  </si>
+  <si>
+    <t>B00EUB5R7G</t>
+  </si>
+  <si>
+    <t>B00CMQSZ4I</t>
+  </si>
+  <si>
+    <t>B00009NROK</t>
+  </si>
+  <si>
+    <t>B00CWCXCT0</t>
+  </si>
+  <si>
+    <t>B005MM7UHW</t>
+  </si>
+  <si>
+    <t>B000BKUZTU</t>
+  </si>
+  <si>
+    <t>B00CMBYHL8</t>
+  </si>
+  <si>
+    <t>B00M55C0NS</t>
+  </si>
+  <si>
+    <t>B00IVPU7AO</t>
+  </si>
+  <si>
+    <t>B00M55C1I2</t>
+  </si>
+  <si>
+    <t>B00IVPU786</t>
+  </si>
+  <si>
+    <t>B00M55BS8G</t>
+  </si>
+  <si>
+    <t>B00M55BS36</t>
+  </si>
+  <si>
+    <t>B00M562LF4</t>
+  </si>
+  <si>
+    <t>B009QZH6JS</t>
+  </si>
+  <si>
+    <t>B00IVPU88U</t>
+  </si>
+  <si>
+    <t>B00DYQYLQQ</t>
+  </si>
+  <si>
+    <t>B00IVPU6BY</t>
+  </si>
+  <si>
+    <t>B00IF4OC8Y</t>
+  </si>
+  <si>
+    <t>B00IVPU7KE</t>
+  </si>
+  <si>
+    <t>B00IF4OATU</t>
+  </si>
+  <si>
+    <t>B00200K1TS</t>
+  </si>
+  <si>
+    <t>B00IEYG88M</t>
+  </si>
+  <si>
+    <t>B00IVPU894</t>
+  </si>
+  <si>
+    <t>B007KFXIDE</t>
+  </si>
+  <si>
+    <t>B00BW6KCTU</t>
+  </si>
+  <si>
+    <t>B00N2ROG9O</t>
+  </si>
+  <si>
+    <t>B00IVPU6AU</t>
+  </si>
+  <si>
+    <t>B00M55C0LK</t>
+  </si>
+  <si>
+    <t>B00DYQYLP2</t>
+  </si>
+  <si>
+    <t>B00DM1BDPK</t>
+  </si>
+  <si>
+    <t>B00IEYGALM</t>
+  </si>
+  <si>
+    <t>B00O1M21H8</t>
+  </si>
+  <si>
+    <t>B00E1XI94Q</t>
+  </si>
+  <si>
+    <t>B00IF4OC2U</t>
+  </si>
+  <si>
+    <t>B00DM1BDKU</t>
+  </si>
+  <si>
+    <t>B00N2ROHA2</t>
+  </si>
+  <si>
+    <t>B005D2JE2A</t>
+  </si>
+  <si>
+    <t>B003WIRFD2</t>
+  </si>
+  <si>
+    <t>B00IF4OBT4</t>
+  </si>
+  <si>
+    <t>B00M55BX3G</t>
+  </si>
+  <si>
+    <t>B00BW6KCW2</t>
+  </si>
+  <si>
+    <t>B00NUB3530</t>
+  </si>
+  <si>
+    <t>B00CHHTOLK</t>
+  </si>
+  <si>
+    <t>B00N2ROGYO</t>
+  </si>
+  <si>
+    <t>B00IVPU5LU</t>
+  </si>
+  <si>
+    <t>B00IF4OC1G</t>
+  </si>
+  <si>
+    <t>B00IVPU7DG</t>
+  </si>
+  <si>
+    <t>B007BZRXK2</t>
+  </si>
+  <si>
+    <t>B00200K1TI</t>
+  </si>
+  <si>
+    <t>B00KRUXA8W</t>
+  </si>
+  <si>
+    <t>B007KFXIDO</t>
+  </si>
+  <si>
+    <t>B0046XAROG</t>
+  </si>
+  <si>
+    <t>B001CQT0X4</t>
+  </si>
+  <si>
+    <t>B0090J5XLS</t>
+  </si>
+  <si>
+    <t>B0036V9AGU</t>
+  </si>
+  <si>
+    <t>B008R3L94S</t>
+  </si>
+  <si>
+    <t>B00IF4O3JC</t>
+  </si>
+  <si>
+    <t>B00ND1LGJC</t>
+  </si>
+  <si>
+    <t>B008HWTVQ2</t>
+  </si>
+  <si>
+    <t>B00BSRETY2</t>
+  </si>
+  <si>
+    <t>B008HK1YAA</t>
+  </si>
+  <si>
+    <t>B0090J5X0O</t>
+  </si>
+  <si>
+    <t>B00IOGJ3BY</t>
+  </si>
+  <si>
+    <t>B002W0HE6Y</t>
+  </si>
+  <si>
+    <t>B00IOGJ3A0</t>
+  </si>
+  <si>
+    <t>B00BQ5UWXI</t>
+  </si>
+  <si>
+    <t>B004UG41VY</t>
+  </si>
+  <si>
+    <t>B00IF4OE78</t>
+  </si>
+  <si>
+    <t>B000VX6XL6</t>
+  </si>
+  <si>
+    <t>B004S1PNAO</t>
+  </si>
+  <si>
+    <t>B00DM1BGEI</t>
+  </si>
+  <si>
+    <t>B003FXWX54</t>
+  </si>
+  <si>
+    <t>B00IOGJ42M</t>
+  </si>
+  <si>
+    <t>B008R3L9GQ</t>
+  </si>
+  <si>
+    <t>B005BOMU3K</t>
+  </si>
+  <si>
+    <t>B004UG41XM</t>
+  </si>
+  <si>
+    <t>B008RJU4R0</t>
+  </si>
+  <si>
+    <t>B000N3LL02</t>
+  </si>
+  <si>
+    <t>B00JXPT4YQ</t>
+  </si>
+  <si>
+    <t>B001LF413A</t>
+  </si>
+  <si>
+    <t>B004G605OA</t>
+  </si>
+  <si>
+    <t>B00FIYF0IK</t>
+  </si>
+  <si>
+    <t>B00KXO0LDE</t>
+  </si>
+  <si>
+    <t>B004H8FTCK</t>
+  </si>
+  <si>
+    <t>product types</t>
+  </si>
+  <si>
+    <t>1416514783</t>
+  </si>
+  <si>
+    <t>1611761379</t>
+  </si>
+  <si>
+    <t>0988672596</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,9 +1911,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,106 +2199,4588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E570"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10159269011</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7654408011</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1">
-        <v>6427831011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6459737011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B343" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1">
-        <v>330405011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>289938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3015433011</v>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B448" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B449" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B453" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B477" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B487" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B490" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B491" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B492" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B493" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B494" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B496" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B497" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B501" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B502" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B506" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B507" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B508" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B519" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B541" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B546" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B547" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B548" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B551" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="B554" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B556" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B557" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B558" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B559" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B562" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B563" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B565" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B566" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B567" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B570" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -579,6 +6790,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10159269011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7654408011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6427831011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6459737011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1">
+        <v>330405011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>289938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3015433011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -749,11 +7066,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
